--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica_LE_11_01_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica_LE_11_01_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="174">
   <si>
     <t>Fecha:</t>
   </si>
@@ -246,9 +246,6 @@
     <t>110 x 110 px</t>
   </si>
   <si>
-    <t>CI_S3_01_REC10_F1</t>
-  </si>
-  <si>
     <t>Test - con imagen</t>
   </si>
   <si>
@@ -258,12 +255,6 @@
     <t>500 x 500 px</t>
   </si>
   <si>
-    <t>CI_S3_01_REC10_F1n</t>
-  </si>
-  <si>
-    <t>CI_S3_01_REC10_F1a</t>
-  </si>
-  <si>
     <t>M6A</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
   </si>
   <si>
     <t>Test matemático (fórmula)</t>
-  </si>
-  <si>
-    <t>CI_S3_01_REC10_F1r</t>
   </si>
   <si>
     <t>M8A</t>
@@ -395,12 +383,6 @@
     <t>JPG o PNG</t>
   </si>
   <si>
-    <t>CI_S3_01_CE_F1_small</t>
-  </si>
-  <si>
-    <t>CI_S3_01_CE_F1_zoom</t>
-  </si>
-  <si>
     <t>Las fotos pueden tener otras medidas pero menores y deben mantenerse dentro de estos ratios. Por ejemplo, si pones el mapa de Chile, que es muy vertical, su máximo de alto van a ser 600 (y su anchura serán por ejemplo, 100 px) en el caso del zoom.</t>
   </si>
   <si>
@@ -430,48 +412,18 @@
     <t>Asignatura</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Ciencias</t>
-  </si>
-  <si>
     <t>Nivel</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>3ero Secundaria</t>
-  </si>
-  <si>
     <t>Guión</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>Guión 1</t>
-  </si>
-  <si>
     <t>Cuaderno de estudio o Recurso</t>
   </si>
   <si>
-    <t>CE ó REC10</t>
-  </si>
-  <si>
-    <t>Cuaderno de estudio o Recurso número 10</t>
-  </si>
-  <si>
     <t>Foto</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Foto o imagen número 1</t>
-  </si>
-  <si>
     <t>Small o Zoom (CE); Normal, Ampliada o Respuesta (REC); cuando aplica</t>
   </si>
   <si>
@@ -508,6 +460,51 @@
     <t>Área:</t>
   </si>
   <si>
+    <t>CN_08_02_REC10_IMG01</t>
+  </si>
+  <si>
+    <t>CN_08_02_REC10_IMG01n</t>
+  </si>
+  <si>
+    <t>CN_08_02_REC10_IMG01_small</t>
+  </si>
+  <si>
+    <t>CN_08_02_REC10_IMG01a</t>
+  </si>
+  <si>
+    <t>CN_08_02_REC10_IMG01r</t>
+  </si>
+  <si>
+    <t>CN_08_02_REC10_IMG01_zoom</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Octavo Básica Secundaria</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Guión 2</t>
+  </si>
+  <si>
+    <t>REC10</t>
+  </si>
+  <si>
+    <t>IMG01</t>
+  </si>
+  <si>
+    <t>Imagen número 1</t>
+  </si>
+  <si>
+    <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
+  </si>
+  <si>
     <t>Literatura de la Edad Antigua y de la Edad Media</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
   </si>
   <si>
     <t>Cuaderno de Estudio</t>
-  </si>
-  <si>
-    <t>LE_11_01_CO</t>
   </si>
   <si>
     <t>http://commons.wikimedia.org/wiki/File:Cercano_Oriente.png
@@ -537,6 +531,9 @@
   </si>
   <si>
     <t>http://upload.wikimedia.org/wikipedia/commons/f/f4/AntikeGriechen1.jpg</t>
+  </si>
+  <si>
+    <t>Colonización griega del siglo VIII al IV a. C.</t>
   </si>
   <si>
     <r>
@@ -554,18 +551,15 @@
     </r>
   </si>
   <si>
+    <t>http://static0.planetasaber.com/encyclopedia/Data/Imagenes/FOTOS/000IM601.jpg</t>
+  </si>
+  <si>
     <t>Vertical</t>
   </si>
   <si>
-    <t>Colonización griega del siglo VIII al IV a. C.</t>
-  </si>
-  <si>
     <t>Gilgamesh en un bajorrelieve</t>
   </si>
   <si>
-    <t>http://static0.planetasaber.com/encyclopedia/Data/Imagenes/FOTOS/000IM601.jpg</t>
-  </si>
-  <si>
     <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=00080201&amp;ruta=aulaplaneta&amp;DATA=Htj5M9Sr00iLC3CTxjvbH4Vu4tOpBCjQouZlS%2b0eT3w%3d</t>
   </si>
   <si>
@@ -584,7 +578,7 @@
     <t>Los relatos mitológicos griegos presentaban, en un mismo plano narrativo, las experiencias de hombres, héroes y dioses</t>
   </si>
   <si>
-    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0007YW01&amp;ruta=aulaplaneta&amp;DATA=Xkg7%2b2szoSJPmqI3TtwUchWH2GAQ%2fV%2fuse67%2b5xCC3M%3d</t>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=000MDZ01&amp;ruta=aulaplaneta&amp;DATA=liXdw0UWeeN5WMmoG0JxXxWH2GAQ%2fV%2fuse67%2b5xCC3M%3d</t>
   </si>
   <si>
     <t>Las cruzadas</t>
@@ -606,6 +600,9 @@
   </si>
   <si>
     <t>El entierro del conde de Orgaz (1586-1588) de El Greco (Iglesia de Santo Tomé, Toledo, España)</t>
+  </si>
+  <si>
+    <t>LE_11_01_CO</t>
   </si>
 </sst>
 </file>
@@ -615,7 +612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,6 +626,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
     </font>
     <font>
       <u/>
@@ -645,6 +651,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
     </font>
     <font>
       <sz val="10"/>
@@ -672,6 +693,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -731,13 +757,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -945,6 +964,51 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1145,6 +1209,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1196,117 +1273,134 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1324,119 +1418,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1459,164 +1619,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2367,2860 +2374,3354 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="69" customWidth="1"/>
-    <col min="2" max="2" width="21" style="69" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="69" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="69" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="69" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="69" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="69" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="75" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="75" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="69" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="69" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="69"/>
+    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="16" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="72" t="s">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="87">
+        <v>11</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80">
+        <v>42100</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="F2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="77">
-        <v>11</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="95" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68" t="str">
+      <c r="D5" s="92"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="44" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="2" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-    </row>
-    <row r="8" spans="1:16" s="91" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="35" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-    </row>
-    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="98" t="s">
+      <c r="I9" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="90" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="str">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="60" t="str">
+      <c r="B10" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="61" t="str">
+      <c r="D10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_11_01_CO_IMG01_small</v>
       </c>
-      <c r="G10" s="61" t="str">
+      <c r="G10" s="13" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H10" s="61" t="str">
-        <f>IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H10" s="13" t="str">
+        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_11_01_CO_IMG01_zoom</v>
       </c>
-      <c r="I10" s="61" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I10" s="13" t="str">
+        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="90" customFormat="1" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="str">
+      <c r="J10" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="244.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="60" t="str">
-        <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="B11" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="61" t="str">
+      <c r="D11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_11_01_CO_IMG02_small</v>
       </c>
-      <c r="G11" s="61" t="str">
+      <c r="G11" s="13" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H11" s="61" t="str">
-        <f t="shared" ref="H11:H74" si="2">IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H11" s="13" t="str">
+        <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_11_01_CO_IMG02_zoom</v>
       </c>
-      <c r="I11" s="61" t="str">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I11" s="13" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="61" t="s">
+      <c r="J11" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="str">
+        <f t="shared" ref="A12:A18" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="71" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="90" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="str">
-        <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
-        <v>IMG03</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="60" t="str">
+      <c r="C12" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="61" t="s">
+      <c r="D12" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="61" t="str">
+      <c r="F12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG03_small</v>
       </c>
-      <c r="G12" s="61" t="str">
+      <c r="G12" s="13" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="61" t="str">
+      <c r="H12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG03_zoom</v>
       </c>
-      <c r="I12" s="61" t="str">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I12" s="13" t="str">
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" s="90" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v>IMG04</v>
-      </c>
-      <c r="B13" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="60" t="str">
+      <c r="C13" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="61" t="str">
+      <c r="D13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG04_small</v>
       </c>
-      <c r="G13" s="61" t="str">
+      <c r="G13" s="13" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H13" s="61" t="str">
+      <c r="H13" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG04_zoom</v>
       </c>
-      <c r="I13" s="61" t="str">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I13" s="13" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" s="90" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="str">
+      <c r="J13" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="60" t="str">
+      <c r="B14" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="61" t="s">
+      <c r="D14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F14" s="61" t="str">
+      <c r="F14" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG05_small</v>
       </c>
-      <c r="G14" s="61" t="str">
+      <c r="G14" s="13" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H14" s="61" t="str">
+      <c r="H14" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG05_zoom</v>
       </c>
-      <c r="I14" s="61" t="str">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I14" s="13" t="str">
+        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="1:16" s="90" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="str">
+      <c r="J14" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="60" t="str">
+      <c r="B15" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="61" t="str">
+      <c r="D15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG06_small</v>
       </c>
-      <c r="G15" s="61" t="str">
+      <c r="G15" s="13" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H15" s="61" t="str">
+      <c r="H15" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG06_zoom</v>
       </c>
-      <c r="I15" s="61" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I15" s="13" t="str">
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="63"/>
-    </row>
-    <row r="16" spans="1:16" s="90" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="str">
+      <c r="J15" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="126.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="60" t="str">
+      <c r="B16" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="61" t="str">
+      <c r="D16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG07_small</v>
       </c>
-      <c r="G16" s="61" t="str">
+      <c r="G16" s="13" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H16" s="61" t="str">
+      <c r="H16" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG07_zoom</v>
       </c>
-      <c r="I16" s="61" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I16" s="13" t="str">
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" s="90" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="str">
+      <c r="J16" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="60" t="str">
+      <c r="B17" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="61" t="s">
+      <c r="D17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="61" t="str">
+      <c r="F17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG08_small</v>
       </c>
-      <c r="G17" s="61" t="str">
+      <c r="G17" s="13" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H17" s="61" t="str">
+      <c r="H17" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG08_zoom</v>
       </c>
-      <c r="I17" s="61" t="str">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I17" s="13" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="63"/>
-    </row>
-    <row r="18" spans="1:11" s="90" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="str">
+      <c r="J17" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="60" t="str">
+      <c r="B18" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D18" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="61" t="s">
+      <c r="D18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="61" t="str">
+      <c r="F18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>LE_11_01_CO_IMG09_small</v>
       </c>
-      <c r="G18" s="61" t="str">
+      <c r="G18" s="13" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H18" s="61" t="str">
+      <c r="H18" s="13" t="str">
         <f t="shared" si="2"/>
         <v>LE_11_01_CO_IMG09_zoom</v>
       </c>
-      <c r="I18" s="61" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I18" s="13" t="str">
+        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="63"/>
-    </row>
-    <row r="19" spans="1:11" s="90" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v>IMGFALSO</v>
-      </c>
-      <c r="B19" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="60" t="str">
+      <c r="J18" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D19" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="61" t="s">
+      <c r="D19" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="61" t="str">
+      <c r="F19" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>LE_11_01_CO_IMGFALSO_small</v>
-      </c>
-      <c r="G19" s="61" t="str">
+        <v>LE_11_01_CO_IMG10_small</v>
+      </c>
+      <c r="G19" s="13" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H19" s="61" t="str">
+      <c r="H19" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>LE_11_01_CO_IMGFALSO_zoom</v>
-      </c>
-      <c r="I19" s="61" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>LE_11_01_CO_IMG10_zoom</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="K19" s="63"/>
-    </row>
-    <row r="20" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="60" t="str">
+      <c r="J19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="str">
+        <f t="shared" ref="A20:A83" si="4">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61" t="str">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="61" t="str">
+      <c r="G20" s="13" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H20" s="61" t="str">
+      <c r="H20" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="61" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="63"/>
-    </row>
-    <row r="21" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="60" t="str">
+      <c r="I20" s="13" t="str">
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61" t="str">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="61" t="str">
+      <c r="G21" s="13" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H21" s="61" t="str">
+      <c r="H21" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="61" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-    </row>
-    <row r="22" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="60" t="str">
+      <c r="I21" s="13" t="str">
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61" t="str">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="61" t="str">
+      <c r="G22" s="13" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H22" s="61" t="str">
+      <c r="H22" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="61" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="65"/>
-    </row>
-    <row r="23" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61" t="str">
+      <c r="I22" s="13" t="str">
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="61" t="str">
+      <c r="G23" s="13" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H23" s="61" t="str">
+      <c r="H23" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="61" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-    </row>
-    <row r="24" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61" t="str">
+      <c r="I23" s="13" t="str">
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="61" t="str">
+      <c r="G24" s="13" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H24" s="61" t="str">
+      <c r="H24" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="61" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-    </row>
-    <row r="25" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61" t="str">
+      <c r="I24" s="13" t="str">
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="61" t="str">
+      <c r="G25" s="13" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H25" s="61" t="str">
+      <c r="H25" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="61" t="str">
-        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="65"/>
-    </row>
-    <row r="26" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="str">
+      <c r="I25" s="13" t="str">
+        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="61" t="str">
+      <c r="G26" s="13" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H26" s="61" t="str">
+      <c r="H26" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="61" t="str">
-        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="61"/>
-      <c r="K26" s="65"/>
-    </row>
-    <row r="27" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61" t="str">
+      <c r="I26" s="13" t="str">
+        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="61" t="str">
+      <c r="G27" s="13" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H27" s="61" t="str">
+      <c r="H27" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="61" t="str">
-        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61" t="str">
+      <c r="I27" s="13" t="str">
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="61" t="str">
+      <c r="G28" s="13" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H28" s="61" t="str">
+      <c r="H28" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="61" t="str">
-        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-    </row>
-    <row r="29" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61" t="str">
+      <c r="I28" s="13" t="str">
+        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="61" t="str">
+      <c r="G29" s="13" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H29" s="61" t="str">
+      <c r="H29" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="61" t="str">
-        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-    </row>
-    <row r="30" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61" t="str">
+      <c r="I29" s="13" t="str">
+        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="61" t="str">
+      <c r="G30" s="13" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H30" s="61" t="str">
+      <c r="H30" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="61" t="str">
-        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-    </row>
-    <row r="31" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61" t="str">
+      <c r="I30" s="13" t="str">
+        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="61" t="str">
+      <c r="G31" s="13" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H31" s="61" t="str">
+      <c r="H31" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="61" t="str">
-        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61" t="str">
+      <c r="I31" s="13" t="str">
+        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="61" t="str">
+      <c r="G32" s="13" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H32" s="61" t="str">
+      <c r="H32" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="61" t="str">
-        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-    </row>
-    <row r="33" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61" t="str">
+      <c r="I32" s="13" t="str">
+        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="61" t="str">
+      <c r="G33" s="13" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H33" s="61" t="str">
+      <c r="H33" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="61" t="str">
-        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-    </row>
-    <row r="34" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61" t="str">
+      <c r="I33" s="13" t="str">
+        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="61" t="str">
+      <c r="G34" s="13" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H34" s="61" t="str">
+      <c r="H34" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="61" t="str">
-        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-    </row>
-    <row r="35" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61" t="str">
+      <c r="I34" s="13" t="str">
+        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="61" t="str">
+      <c r="G35" s="13" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H35" s="61" t="str">
+      <c r="H35" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="61" t="str">
-        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-    </row>
-    <row r="36" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61" t="str">
+      <c r="I35" s="13" t="str">
+        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="61" t="str">
+      <c r="G36" s="13" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H36" s="61" t="str">
+      <c r="H36" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="61" t="str">
-        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-    </row>
-    <row r="37" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61" t="str">
+      <c r="I36" s="13" t="str">
+        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="61" t="str">
+      <c r="G37" s="13" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H37" s="61" t="str">
+      <c r="H37" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="61" t="str">
-        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="65"/>
-      <c r="K37" s="61"/>
-    </row>
-    <row r="38" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61" t="str">
+      <c r="I37" s="13" t="str">
+        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="61" t="str">
+      <c r="G38" s="13" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H38" s="61" t="str">
+      <c r="H38" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="61" t="str">
-        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="65"/>
-      <c r="K38" s="61"/>
-    </row>
-    <row r="39" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61" t="str">
+      <c r="I38" s="13" t="str">
+        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="61" t="str">
+      <c r="G39" s="13" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H39" s="61" t="str">
+      <c r="H39" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="61" t="str">
-        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-    </row>
-    <row r="40" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61" t="str">
+      <c r="I39" s="13" t="str">
+        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="61" t="str">
+      <c r="G40" s="13" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H40" s="61" t="str">
+      <c r="H40" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" s="61" t="str">
-        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-    </row>
-    <row r="41" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61" t="str">
+      <c r="I40" s="13" t="str">
+        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="61" t="str">
+      <c r="G41" s="13" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H41" s="61" t="str">
+      <c r="H41" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" s="61" t="str">
-        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-    </row>
-    <row r="42" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61" t="str">
+      <c r="I41" s="13" t="str">
+        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="61" t="str">
+      <c r="G42" s="13" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H42" s="61" t="str">
+      <c r="H42" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" s="61" t="str">
-        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-    </row>
-    <row r="43" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61" t="str">
+      <c r="I42" s="13" t="str">
+        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="61" t="str">
+      <c r="G43" s="13" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H43" s="61" t="str">
+      <c r="H43" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" s="61" t="str">
-        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-    </row>
-    <row r="44" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61" t="str">
+      <c r="I43" s="13" t="str">
+        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="61" t="str">
+      <c r="G44" s="13" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H44" s="61" t="str">
+      <c r="H44" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I44" s="61" t="str">
-        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-    </row>
-    <row r="45" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61" t="str">
+      <c r="I44" s="13" t="str">
+        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="61" t="str">
+      <c r="G45" s="13" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H45" s="61" t="str">
+      <c r="H45" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I45" s="61" t="str">
-        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-    </row>
-    <row r="46" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61" t="str">
+      <c r="I45" s="13" t="str">
+        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="61" t="str">
+      <c r="G46" s="13" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H46" s="61" t="str">
+      <c r="H46" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" s="61" t="str">
-        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-    </row>
-    <row r="47" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61" t="str">
+      <c r="I46" s="13" t="str">
+        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="61" t="str">
+      <c r="G47" s="13" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H47" s="61" t="str">
+      <c r="H47" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" s="61" t="str">
-        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-    </row>
-    <row r="48" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61" t="str">
+      <c r="I47" s="13" t="str">
+        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="61" t="str">
+      <c r="G48" s="13" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H48" s="61" t="str">
+      <c r="H48" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" s="61" t="str">
-        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-    </row>
-    <row r="49" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61" t="str">
+      <c r="I48" s="13" t="str">
+        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="61" t="str">
+      <c r="G49" s="13" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H49" s="61" t="str">
+      <c r="H49" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="61" t="str">
-        <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-    </row>
-    <row r="50" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61" t="str">
+      <c r="I49" s="13" t="str">
+        <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="61" t="str">
+      <c r="G50" s="13" t="str">
         <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H50" s="61" t="str">
+      <c r="H50" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" s="61" t="str">
-        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-    </row>
-    <row r="51" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61" t="str">
+      <c r="I50" s="13" t="str">
+        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="61" t="str">
+      <c r="G51" s="13" t="str">
         <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H51" s="61" t="str">
+      <c r="H51" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I51" s="61" t="str">
-        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-    </row>
-    <row r="52" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61" t="str">
+      <c r="I51" s="13" t="str">
+        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="61" t="str">
+      <c r="G52" s="13" t="str">
         <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H52" s="61" t="str">
+      <c r="H52" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I52" s="61" t="str">
-        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-    </row>
-    <row r="53" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61" t="str">
+      <c r="I52" s="13" t="str">
+        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="61" t="str">
+      <c r="G53" s="13" t="str">
         <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H53" s="61" t="str">
+      <c r="H53" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I53" s="61" t="str">
-        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-    </row>
-    <row r="54" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61" t="str">
+      <c r="I53" s="13" t="str">
+        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="61" t="str">
+      <c r="G54" s="13" t="str">
         <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H54" s="61" t="str">
+      <c r="H54" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" s="61" t="str">
-        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-    </row>
-    <row r="55" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61" t="str">
+      <c r="I54" s="13" t="str">
+        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="61" t="str">
+      <c r="G55" s="13" t="str">
         <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H55" s="61" t="str">
+      <c r="H55" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="61" t="str">
-        <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-    </row>
-    <row r="56" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61" t="str">
+      <c r="I55" s="13" t="str">
+        <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="61" t="str">
+      <c r="G56" s="13" t="str">
         <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H56" s="61" t="str">
+      <c r="H56" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="61" t="str">
-        <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-    </row>
-    <row r="57" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61" t="str">
+      <c r="I56" s="13" t="str">
+        <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="61" t="str">
+      <c r="G57" s="13" t="str">
         <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H57" s="61" t="str">
+      <c r="H57" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="61" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-    </row>
-    <row r="58" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61" t="str">
+      <c r="I57" s="13" t="str">
+        <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="61" t="str">
+      <c r="G58" s="13" t="str">
         <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H58" s="61" t="str">
+      <c r="H58" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="61" t="str">
-        <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-    </row>
-    <row r="59" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61" t="str">
+      <c r="I58" s="13" t="str">
+        <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="61" t="str">
+      <c r="G59" s="13" t="str">
         <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H59" s="61" t="str">
+      <c r="H59" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="61" t="str">
-        <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-    </row>
-    <row r="60" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61" t="str">
+      <c r="I59" s="13" t="str">
+        <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="61" t="str">
+      <c r="G60" s="13" t="str">
         <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H60" s="61" t="str">
+      <c r="H60" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I60" s="61" t="str">
-        <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-    </row>
-    <row r="61" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61" t="str">
+      <c r="I60" s="13" t="str">
+        <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="61" t="str">
+      <c r="G61" s="13" t="str">
         <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H61" s="61" t="str">
+      <c r="H61" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="61" t="str">
-        <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-    </row>
-    <row r="62" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61" t="str">
+      <c r="I61" s="13" t="str">
+        <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="61" t="str">
+      <c r="G62" s="13" t="str">
         <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H62" s="61" t="str">
+      <c r="H62" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="61" t="str">
-        <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-    </row>
-    <row r="63" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61" t="str">
+      <c r="I62" s="13" t="str">
+        <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="61" t="str">
+      <c r="G63" s="13" t="str">
         <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H63" s="61" t="str">
+      <c r="H63" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="61" t="str">
-        <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-    </row>
-    <row r="64" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61" t="str">
+      <c r="I63" s="13" t="str">
+        <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="61" t="str">
+      <c r="G64" s="13" t="str">
         <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H64" s="61" t="str">
+      <c r="H64" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="61" t="str">
-        <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-    </row>
-    <row r="65" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61" t="str">
+      <c r="I64" s="13" t="str">
+        <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="61" t="str">
+      <c r="G65" s="13" t="str">
         <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H65" s="61" t="str">
+      <c r="H65" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="61" t="str">
-        <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-    </row>
-    <row r="66" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61" t="str">
+      <c r="I65" s="13" t="str">
+        <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G66" s="61" t="str">
+      <c r="G66" s="13" t="str">
         <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H66" s="61" t="str">
+      <c r="H66" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" s="61" t="str">
-        <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-    </row>
-    <row r="67" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61" t="str">
+      <c r="I66" s="13" t="str">
+        <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G67" s="61" t="str">
+      <c r="G67" s="13" t="str">
         <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H67" s="61" t="str">
+      <c r="H67" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="61" t="str">
-        <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-    </row>
-    <row r="68" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61" t="str">
+      <c r="I67" s="13" t="str">
+        <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G68" s="61" t="str">
+      <c r="G68" s="13" t="str">
         <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H68" s="61" t="str">
+      <c r="H68" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="61" t="str">
-        <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-    </row>
-    <row r="69" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61" t="str">
+      <c r="I68" s="13" t="str">
+        <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G69" s="61" t="str">
+      <c r="G69" s="13" t="str">
         <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H69" s="61" t="str">
+      <c r="H69" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="61" t="str">
-        <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-    </row>
-    <row r="70" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61" t="str">
+      <c r="I69" s="13" t="str">
+        <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G70" s="61" t="str">
+      <c r="G70" s="13" t="str">
         <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H70" s="61" t="str">
+      <c r="H70" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="61" t="str">
-        <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-    </row>
-    <row r="71" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61" t="str">
+      <c r="I70" s="13" t="str">
+        <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G71" s="61" t="str">
+      <c r="G71" s="13" t="str">
         <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H71" s="61" t="str">
+      <c r="H71" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="61" t="str">
-        <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-    </row>
-    <row r="72" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61" t="str">
+      <c r="I71" s="13" t="str">
+        <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G72" s="61" t="str">
+      <c r="G72" s="13" t="str">
         <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H72" s="61" t="str">
+      <c r="H72" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="61" t="str">
-        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-    </row>
-    <row r="73" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61" t="str">
+      <c r="I72" s="13" t="str">
+        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J72" s="13"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G73" s="61" t="str">
+      <c r="G73" s="13" t="str">
         <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H73" s="61" t="str">
+      <c r="H73" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I73" s="61" t="str">
-        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-    </row>
-    <row r="74" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61" t="str">
+      <c r="I73" s="13" t="str">
+        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G74" s="61" t="str">
+      <c r="G74" s="13" t="str">
         <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H74" s="61" t="str">
+      <c r="H74" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I74" s="61" t="str">
-        <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-    </row>
-    <row r="75" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61" t="str">
-        <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
-      </c>
-      <c r="G75" s="61" t="str">
+      <c r="I74" s="13" t="str">
+        <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J74" s="13"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="26" t="str">
+        <f t="shared" ref="C75:C108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13" t="str">
+        <f t="shared" ref="F75:F108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="13" t="str">
         <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H75" s="61" t="str">
-        <f t="shared" ref="H75:H108" si="5">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I75" s="61" t="str">
-        <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-    </row>
-    <row r="76" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61" t="str">
+      <c r="H75" s="13" t="str">
+        <f t="shared" ref="H75:H108" si="7">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="13" t="str">
+        <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J75" s="13"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="61" t="str">
+      <c r="B76" s="12"/>
+      <c r="C76" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G76" s="13" t="str">
         <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H76" s="61" t="str">
+      <c r="H76" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I76" s="13" t="str">
+        <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J76" s="13"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I76" s="61" t="str">
-        <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-    </row>
-    <row r="77" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61" t="str">
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G77" s="13" t="str">
+        <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H77" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I77" s="13" t="str">
+        <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J77" s="13"/>
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="61" t="str">
-        <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H77" s="61" t="str">
+      <c r="B78" s="12"/>
+      <c r="C78" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I77" s="61" t="str">
-        <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-    </row>
-    <row r="78" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61" t="str">
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G78" s="13" t="str">
+        <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H78" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I78" s="13" t="str">
+        <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J78" s="13"/>
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="61" t="str">
-        <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H78" s="61" t="str">
+      <c r="B79" s="12"/>
+      <c r="C79" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I78" s="61" t="str">
-        <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-    </row>
-    <row r="79" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61" t="str">
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G79" s="13" t="str">
+        <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H79" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I79" s="13" t="str">
+        <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J79" s="13"/>
+      <c r="K79" s="14"/>
+    </row>
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="61" t="str">
-        <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H79" s="61" t="str">
+      <c r="B80" s="12"/>
+      <c r="C80" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I79" s="61" t="str">
-        <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61"/>
-    </row>
-    <row r="80" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61" t="str">
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G80" s="13" t="str">
+        <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H80" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I80" s="13" t="str">
+        <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="13"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="61" t="str">
-        <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H80" s="61" t="str">
+      <c r="B81" s="12"/>
+      <c r="C81" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I80" s="61" t="str">
-        <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-    </row>
-    <row r="81" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61" t="str">
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G81" s="13" t="str">
+        <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I81" s="13" t="str">
+        <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="13"/>
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="61" t="str">
-        <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H81" s="61" t="str">
+      <c r="B82" s="12"/>
+      <c r="C82" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I81" s="61" t="str">
-        <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-    </row>
-    <row r="82" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61" t="str">
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G82" s="13" t="str">
+        <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H82" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I82" s="13" t="str">
+        <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="13"/>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="61" t="str">
-        <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H82" s="61" t="str">
+      <c r="B83" s="12"/>
+      <c r="C83" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I82" s="61" t="str">
-        <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-    </row>
-    <row r="83" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G83" s="61" t="str">
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G83" s="13" t="str">
         <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H83" s="61" t="str">
+      <c r="H83" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I83" s="13" t="str">
+        <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J83" s="13"/>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="str">
+        <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I83" s="61" t="str">
-        <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-    </row>
-    <row r="84" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G84" s="61" t="str">
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G84" s="13" t="str">
         <f>IF(F84&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H84" s="61" t="str">
+      <c r="H84" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I84" s="13" t="str">
+        <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J84" s="13"/>
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I84" s="61" t="str">
-        <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-    </row>
-    <row r="85" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G85" s="61" t="str">
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G85" s="13" t="str">
         <f>IF(F85&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H85" s="61" t="str">
+      <c r="H85" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I85" s="13" t="str">
+        <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J85" s="13"/>
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I85" s="61" t="str">
-        <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-    </row>
-    <row r="86" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G86" s="61" t="str">
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G86" s="13" t="str">
         <f>IF(F86&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H86" s="61" t="str">
+      <c r="H86" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I86" s="13" t="str">
+        <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J86" s="13"/>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I86" s="61" t="str">
-        <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-    </row>
-    <row r="87" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G87" s="61" t="str">
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G87" s="13" t="str">
         <f>IF(F87&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H87" s="61" t="str">
+      <c r="H87" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I87" s="13" t="str">
+        <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J87" s="13"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I87" s="61" t="str">
-        <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-    </row>
-    <row r="88" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G88" s="61" t="str">
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G88" s="13" t="str">
         <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H88" s="61" t="str">
+      <c r="H88" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I88" s="13" t="str">
+        <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J88" s="13"/>
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I88" s="61" t="str">
-        <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-    </row>
-    <row r="89" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G89" s="61" t="str">
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G89" s="13" t="str">
         <f>IF(F89&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H89" s="61" t="str">
+      <c r="H89" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I89" s="13" t="str">
+        <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J89" s="13"/>
+      <c r="K89" s="14"/>
+    </row>
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I89" s="61" t="str">
-        <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-    </row>
-    <row r="90" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G90" s="61" t="str">
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G90" s="13" t="str">
         <f>IF(F90&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H90" s="61" t="str">
+      <c r="H90" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I90" s="13" t="str">
+        <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J90" s="13"/>
+      <c r="K90" s="14"/>
+    </row>
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I90" s="61" t="str">
-        <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-    </row>
-    <row r="91" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G91" s="61" t="str">
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G91" s="13" t="str">
         <f>IF(F91&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H91" s="61" t="str">
+      <c r="H91" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I91" s="13" t="str">
+        <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J91" s="13"/>
+      <c r="K91" s="14"/>
+    </row>
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I91" s="61" t="str">
-        <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-    </row>
-    <row r="92" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G92" s="61" t="str">
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G92" s="13" t="str">
         <f>IF(F92&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H92" s="61" t="str">
+      <c r="H92" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I92" s="13" t="str">
+        <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J92" s="13"/>
+      <c r="K92" s="14"/>
+    </row>
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I92" s="61" t="str">
-        <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G93" s="61" t="str">
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G93" s="13" t="str">
         <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H93" s="61" t="str">
+      <c r="H93" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I93" s="13" t="str">
+        <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J93" s="13"/>
+      <c r="K93" s="14"/>
+    </row>
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I93" s="61" t="str">
-        <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-    </row>
-    <row r="94" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G94" s="61" t="str">
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G94" s="13" t="str">
         <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H94" s="61" t="str">
+      <c r="H94" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I94" s="13" t="str">
+        <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J94" s="13"/>
+      <c r="K94" s="14"/>
+    </row>
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I94" s="61" t="str">
-        <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-    </row>
-    <row r="95" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G95" s="61" t="str">
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G95" s="13" t="str">
         <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H95" s="61" t="str">
+      <c r="H95" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I95" s="13" t="str">
+        <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J95" s="13"/>
+      <c r="K95" s="14"/>
+    </row>
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I95" s="61" t="str">
-        <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J95" s="61"/>
-      <c r="K95" s="61"/>
-    </row>
-    <row r="96" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G96" s="61" t="str">
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G96" s="13" t="str">
         <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H96" s="61" t="str">
+      <c r="H96" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I96" s="13" t="str">
+        <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J96" s="13"/>
+      <c r="K96" s="14"/>
+    </row>
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I96" s="61" t="str">
-        <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J96" s="61"/>
-      <c r="K96" s="61"/>
-    </row>
-    <row r="97" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G97" s="61" t="str">
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G97" s="13" t="str">
         <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H97" s="61" t="str">
+      <c r="H97" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I97" s="13" t="str">
+        <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J97" s="13"/>
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I97" s="61" t="str">
-        <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-    </row>
-    <row r="98" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G98" s="61" t="str">
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G98" s="13" t="str">
         <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H98" s="61" t="str">
+      <c r="H98" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I98" s="13" t="str">
+        <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J98" s="13"/>
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I98" s="61" t="str">
-        <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-    </row>
-    <row r="99" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G99" s="61" t="str">
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G99" s="13" t="str">
         <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H99" s="61" t="str">
+      <c r="H99" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I99" s="13" t="str">
+        <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J99" s="13"/>
+      <c r="K99" s="14"/>
+    </row>
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I99" s="61" t="str">
-        <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J99" s="61"/>
-      <c r="K99" s="61"/>
-    </row>
-    <row r="100" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G100" s="61" t="str">
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G100" s="13" t="str">
         <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H100" s="61" t="str">
+      <c r="H100" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I100" s="13" t="str">
+        <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J100" s="13"/>
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I100" s="61" t="str">
-        <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-    </row>
-    <row r="101" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G101" s="61" t="str">
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G101" s="13" t="str">
         <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H101" s="61" t="str">
+      <c r="H101" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I101" s="13" t="str">
+        <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J101" s="13"/>
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I101" s="61" t="str">
-        <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-    </row>
-    <row r="102" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G102" s="61" t="str">
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G102" s="13" t="str">
         <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H102" s="61" t="str">
+      <c r="H102" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I102" s="13" t="str">
+        <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J102" s="13"/>
+      <c r="K102" s="14"/>
+    </row>
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I102" s="61" t="str">
-        <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J102" s="61"/>
-      <c r="K102" s="61"/>
-    </row>
-    <row r="103" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G103" s="61" t="str">
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G103" s="13" t="str">
         <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H103" s="61" t="str">
+      <c r="H103" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I103" s="13" t="str">
+        <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J103" s="13"/>
+      <c r="K103" s="14"/>
+    </row>
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I103" s="61" t="str">
-        <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J103" s="61"/>
-      <c r="K103" s="61"/>
-    </row>
-    <row r="104" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G104" s="61" t="str">
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G104" s="13" t="str">
         <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H104" s="61" t="str">
+      <c r="H104" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I104" s="13" t="str">
+        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J104" s="13"/>
+      <c r="K104" s="14"/>
+    </row>
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I104" s="61" t="str">
-        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J104" s="61"/>
-      <c r="K104" s="61"/>
-    </row>
-    <row r="105" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G105" s="61" t="str">
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G105" s="13" t="str">
         <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H105" s="61" t="str">
+      <c r="H105" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I105" s="13" t="str">
+        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J105" s="13"/>
+      <c r="K105" s="14"/>
+    </row>
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I105" s="61" t="str">
-        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J105" s="61"/>
-      <c r="K105" s="61"/>
-    </row>
-    <row r="106" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G106" s="61" t="str">
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G106" s="13" t="str">
         <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H106" s="61" t="str">
+      <c r="H106" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I106" s="13" t="str">
+        <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J106" s="13"/>
+      <c r="K106" s="14"/>
+    </row>
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I106" s="61" t="str">
-        <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J106" s="61"/>
-      <c r="K106" s="61"/>
-    </row>
-    <row r="107" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G107" s="61" t="str">
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G107" s="13" t="str">
         <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H107" s="61" t="str">
+      <c r="H107" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I107" s="13" t="str">
+        <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J107" s="13"/>
+      <c r="K107" s="14"/>
+    </row>
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I107" s="61" t="str">
-        <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J107" s="61"/>
-      <c r="K107" s="61"/>
-    </row>
-    <row r="108" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G108" s="61" t="str">
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G108" s="13" t="str">
         <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H108" s="61" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I108" s="61" t="str">
-        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J108" s="61"/>
-      <c r="K108" s="61"/>
+      <c r="H108" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I108" s="13" t="str">
+        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J108" s="13"/>
+      <c r="K108" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5270,18 +5771,19 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="http://commons.wikimedia.org/wiki/File:Cercano_Oriente.png"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B14" r:id="rId3"/>
-    <hyperlink ref="B15" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
-    <hyperlink ref="B18" r:id="rId7"/>
-    <hyperlink ref="B19" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://commons.wikimedia.org/wiki/File:Cercano_Oriente.png_x000a_"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B18" r:id="rId9"/>
+    <hyperlink ref="B19" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5301,539 +5803,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11" style="1"/>
-    <col min="8" max="11" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="72.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11" style="29"/>
+    <col min="3" max="3" width="13.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="29" customWidth="1"/>
+    <col min="5" max="7" width="11" style="29"/>
+    <col min="8" max="11" width="11" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="10"/>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="39"/>
+      <c r="H3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="39"/>
+      <c r="H4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="29">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="50" t="str">
+      <c r="D5" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="1" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="29">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="1" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="29">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="36" t="str">
+      <c r="B7" s="38"/>
+      <c r="C7" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="29">
         <v>4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="I8" s="1" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="I8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="29">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="I9" s="1" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="I9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="29">
         <v>6</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="I10" s="1" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="I10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="29">
         <v>7</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="29">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="29">
         <v>8</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="29">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="29">
         <v>9</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="I13" s="1" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="I13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="29">
         <v>10</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="I14" s="1" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="I14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="29">
         <v>11</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="29">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="J15" s="1">
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="J15" s="29">
         <v>12</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="29">
         <v>13</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="44" t="str">
+      <c r="D17" s="101" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="J17" s="1">
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="J17" s="29">
         <v>14</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="29">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="36" t="str">
+      <c r="B18" s="38"/>
+      <c r="C18" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="J18" s="1">
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="J18" s="29">
         <v>15</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="H19" s="29">
         <v>3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="29">
         <v>16</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="29">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="1">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="29">
         <v>4</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="29">
         <v>5</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="29">
         <v>4</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="1" t="str">
+      <c r="H21" s="29" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="1" t="str">
+      <c r="I21" s="29" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="J21" s="29" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="29">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="1">
+      <c r="K22" s="29">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="1">
+      <c r="K23" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="1">
+      <c r="K24" s="29">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="1">
+      <c r="K25" s="29">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="1">
+      <c r="K26" s="29">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="1">
+      <c r="K27" s="29">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="1">
+      <c r="K28" s="29">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="1">
+      <c r="K29" s="29">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="1">
+      <c r="K30" s="29">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="1">
+      <c r="K31" s="29">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="1">
+      <c r="K32" s="29">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="1">
+      <c r="K33" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="1">
+      <c r="K34" s="29">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="1">
+      <c r="K35" s="29">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="1">
+      <c r="K36" s="29">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="1">
+      <c r="K37" s="29">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="1">
+      <c r="K38" s="29">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="1">
+      <c r="K39" s="29">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="1">
+      <c r="K40" s="29">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="1">
+      <c r="K41" s="29">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="1">
+      <c r="K42" s="29">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="1">
+      <c r="K43" s="29">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="1">
+      <c r="K44" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="1" t="str">
+      <c r="K45" s="29" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -6021,566 +6523,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="21" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="29"/>
+    <col min="5" max="5" width="11.75" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11" style="29" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="29" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="15" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D5" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E5" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="C6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C7" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E7" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="B8" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D8" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E8" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B9" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C9" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D9" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E9" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B10" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C10" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D10" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E10" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E12" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D13" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D17" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="E17" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="C24" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="C25" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="B26" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="C26" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="8">
